--- a/files/SBF_120_Index.xlsx
+++ b/files/SBF_120_Index.xlsx
@@ -292,9 +292,6 @@
     <t>SES</t>
   </si>
   <si>
-    <t>SES IMAGOTAG</t>
-  </si>
-  <si>
     <t>SOCIETE GENERALE</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
     <t>VOLTALIA</t>
   </si>
   <si>
+    <t>VusionGroup</t>
+  </si>
+  <si>
     <t>WENDEL</t>
   </si>
   <si>
@@ -652,85 +652,85 @@
     <t>LU0088087324-XPAR</t>
   </si>
   <si>
+    <t>FR0000130809-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000121220-XPAR</t>
+  </si>
+  <si>
+    <t>FR0013227113-XPAR</t>
+  </si>
+  <si>
+    <t>FR0013379484-XPAR</t>
+  </si>
+  <si>
+    <t>BE0003470755-XBRU</t>
+  </si>
+  <si>
+    <t>FR0000050809-XPAR</t>
+  </si>
+  <si>
+    <t>FR0012757854-XPAR</t>
+  </si>
+  <si>
+    <t>NL00150001Q9-XPAR</t>
+  </si>
+  <si>
+    <t>NL0000226223-XPAR</t>
+  </si>
+  <si>
+    <t>NL0014559478-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000051807-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000054900-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000121329-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000120271-XPAR</t>
+  </si>
+  <si>
+    <t>FR0005691656-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000054470-XPAR</t>
+  </si>
+  <si>
+    <t>FR0013326246-XPAR</t>
+  </si>
+  <si>
+    <t>FR0013176526-XPAR</t>
+  </si>
+  <si>
+    <t>FR0013506730-XPAR</t>
+  </si>
+  <si>
+    <t>FR0004056851-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000124141-XPAR</t>
+  </si>
+  <si>
+    <t>FR0013447729-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000125486-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000031577-XPAR</t>
+  </si>
+  <si>
+    <t>FR0000127771-XPAR</t>
+  </si>
+  <si>
+    <t>FR0011995588-XPAR</t>
+  </si>
+  <si>
     <t>FR0010282822-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000130809-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000121220-XPAR</t>
-  </si>
-  <si>
-    <t>FR0013227113-XPAR</t>
-  </si>
-  <si>
-    <t>FR0013379484-XPAR</t>
-  </si>
-  <si>
-    <t>BE0003470755-XBRU</t>
-  </si>
-  <si>
-    <t>FR0000050809-XPAR</t>
-  </si>
-  <si>
-    <t>FR0012757854-XPAR</t>
-  </si>
-  <si>
-    <t>NL00150001Q9-XPAR</t>
-  </si>
-  <si>
-    <t>NL0000226223-XPAR</t>
-  </si>
-  <si>
-    <t>NL0014559478-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000051807-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000054900-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000121329-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000120271-XPAR</t>
-  </si>
-  <si>
-    <t>FR0005691656-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000054470-XPAR</t>
-  </si>
-  <si>
-    <t>FR0013326246-XPAR</t>
-  </si>
-  <si>
-    <t>FR0013176526-XPAR</t>
-  </si>
-  <si>
-    <t>FR0013506730-XPAR</t>
-  </si>
-  <si>
-    <t>FR0004056851-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000124141-XPAR</t>
-  </si>
-  <si>
-    <t>FR0013447729-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000125486-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000031577-XPAR</t>
-  </si>
-  <si>
-    <t>FR0000127771-XPAR</t>
-  </si>
-  <si>
-    <t>FR0011995588-XPAR</t>
   </si>
   <si>
     <t>FR0000121204-XPAR</t>
